--- a/Finflux Automation Excels/Client/4974-SUBMITSAVINGS-APPROVE-ACTIVATE-DEPOSIT-WITHDRAW-PRECLOSURE.xlsx
+++ b/Finflux Automation Excels/Client/4974-SUBMITSAVINGS-APPROVE-ACTIVATE-DEPOSIT-WITHDRAW-PRECLOSURE.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>clickonnewSaving</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>$ 1,031</t>
+  </si>
+  <si>
+    <t>From Canara(29)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -326,7 +329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -813,6 +816,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -890,7 +896,7 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
